--- a/CR - Cost Report/BOM/ST/STA0200_to_STA0300.xlsx
+++ b/CR - Cost Report/BOM/ST/STA0200_to_STA0300.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\ST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guillaume Touzé\Documents\GitHub\STUF2019\CR - Cost Report\BOM\ST\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB233933-5718-4C7C-9687-0804246F0609}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>System</t>
   </si>
@@ -57,18 +63,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Name of the part</t>
-  </si>
-  <si>
-    <t>m or b</t>
-  </si>
-  <si>
-    <t>Short description of the part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Part </t>
     </r>
@@ -96,21 +90,6 @@
     <t>ST_02001</t>
   </si>
   <si>
-    <t>ST_02002</t>
-  </si>
-  <si>
-    <t>ST_02003</t>
-  </si>
-  <si>
-    <t>ST_02004</t>
-  </si>
-  <si>
-    <t>ST_02005</t>
-  </si>
-  <si>
-    <t>ST_02006</t>
-  </si>
-  <si>
     <t>ST_03003</t>
   </si>
   <si>
@@ -133,12 +112,57 @@
   </si>
   <si>
     <t>Steering shaft</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Quick Release mobil part</t>
+  </si>
+  <si>
+    <t>Removing part of the Quick release.</t>
+  </si>
+  <si>
+    <t>Quick Release Steel Sleeve</t>
+  </si>
+  <si>
+    <t>Fixed part of the Quick release.</t>
+  </si>
+  <si>
+    <t>Steering Upper Shaft Pivot</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Bearing seat for the steering pivot.</t>
+  </si>
+  <si>
+    <t>Steering U-joint</t>
+  </si>
+  <si>
+    <t>U-joint between the steering column and ST_03002.</t>
+  </si>
+  <si>
+    <t>Steering column</t>
+  </si>
+  <si>
+    <t>Spline coupler</t>
+  </si>
+  <si>
+    <t>To connect the steering column to the steering rack.</t>
+  </si>
+  <si>
+    <t>Bearing</t>
+  </si>
+  <si>
+    <t>Steering pivot bearings.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -538,12 +562,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -583,260 +607,210 @@
     </row>
     <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
